--- a/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
@@ -14,91 +14,587 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+  <si>
+    <t>fileId</t>
+  </si>
+  <si>
+    <t>folderId</t>
+  </si>
+  <si>
+    <t>inSide</t>
+  </si>
+  <si>
+    <t>outSide</t>
+  </si>
+  <si>
+    <t>extId</t>
+  </si>
+  <si>
+    <t>extEnumValue</t>
+  </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>folderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>文件id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文件夹id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内部资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外部资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扩展名id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扩展名枚举值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extEnumValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FZY4JW_0</t>
+  </si>
+  <si>
+    <t>o_1351248175</t>
+  </si>
+  <si>
+    <t>GuideMaskShader</t>
+  </si>
+  <si>
+    <t>o__1445529088</t>
+  </si>
+  <si>
+    <t>pf_hero_1002</t>
+  </si>
+  <si>
+    <t>o_362012243</t>
+  </si>
+  <si>
+    <t>SpriteA</t>
+  </si>
+  <si>
+    <t>o_370526473</t>
+  </si>
+  <si>
+    <t>SpriteB</t>
+  </si>
+  <si>
+    <t>o__2011266808</t>
+  </si>
+  <si>
+    <t>bx_map_pve_1</t>
+  </si>
+  <si>
+    <t>s_1952168169</t>
+  </si>
+  <si>
+    <t>ExampleFMS</t>
+  </si>
+  <si>
+    <t>s_949931212</t>
+  </si>
+  <si>
+    <t>ExampleGuide</t>
+  </si>
+  <si>
+    <t>s__562228563</t>
+  </si>
+  <si>
+    <t>ExampleProject</t>
+  </si>
+  <si>
+    <t>s__554521457</t>
+  </si>
+  <si>
+    <t>ExampleXLua</t>
+  </si>
+  <si>
+    <t>s__1141265897</t>
+  </si>
+  <si>
+    <t>chgPowerCircle1</t>
+  </si>
+  <si>
+    <t>o_234754743</t>
+  </si>
+  <si>
+    <t>chgPowerCircle2</t>
+  </si>
+  <si>
+    <t>o__2143188673</t>
+  </si>
+  <si>
+    <t>chgPowerCircle3</t>
+  </si>
+  <si>
+    <t>s__562228563_refdep</t>
+  </si>
+  <si>
+    <t>effect_hero_foot</t>
+  </si>
+  <si>
+    <t>o_885963987</t>
+  </si>
+  <si>
+    <t>ugui_loading</t>
+  </si>
+  <si>
+    <t>o__801488047</t>
+  </si>
+  <si>
+    <t>LobbyBackground</t>
+  </si>
+  <si>
+    <t>o_321907647</t>
+  </si>
+  <si>
+    <t>ugui_login</t>
+  </si>
+  <si>
+    <t>o_574924529</t>
+  </si>
+  <si>
+    <t>battle_camp_blue</t>
+  </si>
+  <si>
+    <t>sp__1311740722</t>
+  </si>
+  <si>
+    <t>battle_camp_purple</t>
+  </si>
+  <si>
+    <t>battle_camp_yellow</t>
+  </si>
+  <si>
+    <t>battle_dead</t>
+  </si>
+  <si>
+    <t>battle_dialog</t>
+  </si>
+  <si>
+    <t>battle_dialog_bg</t>
+  </si>
+  <si>
+    <t>battle_hero_msg</t>
+  </si>
+  <si>
+    <t>battle_hp</t>
+  </si>
+  <si>
+    <t>battle_hp_bg</t>
+  </si>
+  <si>
+    <t>battle_joystick</t>
+  </si>
+  <si>
+    <t>battle_joystick_bg</t>
+  </si>
+  <si>
+    <t>battle_kill</t>
+  </si>
+  <si>
+    <t>battle_kill1</t>
+  </si>
+  <si>
+    <t>battle_kill2</t>
+  </si>
+  <si>
+    <t>battle_kill3</t>
+  </si>
+  <si>
+    <t>battle_kill4</t>
+  </si>
+  <si>
+    <t>battle_kill_bg</t>
+  </si>
+  <si>
+    <t>battle_kill_icon</t>
+  </si>
+  <si>
+    <t>battle_kill_row</t>
+  </si>
+  <si>
+    <t>battle_map</t>
+  </si>
+  <si>
+    <t>battle_medicine</t>
+  </si>
+  <si>
+    <t>battle_medicine_bg</t>
+  </si>
+  <si>
+    <t>battle_mp</t>
+  </si>
+  <si>
+    <t>battle_other</t>
+  </si>
+  <si>
+    <t>battle_other1</t>
+  </si>
+  <si>
+    <t>battle_setup</t>
+  </si>
+  <si>
+    <t>battle_setup1</t>
+  </si>
+  <si>
+    <t>battle_setup_bg</t>
+  </si>
+  <si>
+    <t>battle_setup_other</t>
+  </si>
+  <si>
+    <t>battle_skill_add</t>
+  </si>
+  <si>
+    <t>battle_skill_bg</t>
+  </si>
+  <si>
+    <t>battle_skill_level</t>
+  </si>
+  <si>
+    <t>battle_time</t>
+  </si>
+  <si>
+    <t>SkillShape_Circle</t>
+  </si>
+  <si>
+    <t>sp_1091131383</t>
+  </si>
+  <si>
+    <t>SkillShape_Line</t>
+  </si>
+  <si>
+    <t>SkillShape_Sector</t>
+  </si>
+  <si>
+    <t>hero_show_attack</t>
+  </si>
+  <si>
+    <t>sp_672254639</t>
+  </si>
+  <si>
+    <t>hero_show_back</t>
+  </si>
+  <si>
+    <t>hero_show_button_attack</t>
+  </si>
+  <si>
+    <t>hero_show_button_def</t>
+  </si>
+  <si>
+    <t>hero_show_button_hp</t>
+  </si>
+  <si>
+    <t>hero_show_button_move</t>
+  </si>
+  <si>
+    <t>hero_show_button_speed</t>
+  </si>
+  <si>
+    <t>hero_show_def</t>
+  </si>
+  <si>
+    <t>hero_show_hp</t>
+  </si>
+  <si>
+    <t>hero_show_move</t>
+  </si>
+  <si>
+    <t>hero_show_skin</t>
+  </si>
+  <si>
+    <t>hero_show_speed</t>
+  </si>
+  <si>
+    <t>hero_show_tower</t>
+  </si>
+  <si>
+    <t>loading_item</t>
+  </si>
+  <si>
+    <t>sp__1225777313</t>
+  </si>
+  <si>
+    <t>loading_other</t>
+  </si>
+  <si>
+    <t>loading_other1</t>
+  </si>
+  <si>
+    <t>lobby_achieve</t>
+  </si>
+  <si>
+    <t>sp_1265498893</t>
+  </si>
+  <si>
+    <t>lobby_activity</t>
+  </si>
+  <si>
+    <t>lobby_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_speak</t>
+  </si>
+  <si>
+    <t>lobby_energy</t>
+  </si>
+  <si>
+    <t>lobby_equip</t>
+  </si>
+  <si>
+    <t>lobby_friend</t>
+  </si>
+  <si>
+    <t>lobby_hero</t>
+  </si>
+  <si>
+    <t>lobby_mail</t>
+  </si>
+  <si>
+    <t>lobby_misson</t>
+  </si>
+  <si>
+    <t>lobby_mobile</t>
+  </si>
+  <si>
+    <t>lobby_mode</t>
+  </si>
+  <si>
+    <t>lobby_player1</t>
+  </si>
+  <si>
+    <t>lobby_player2</t>
+  </si>
+  <si>
+    <t>lobby_player_bg</t>
+  </si>
+  <si>
+    <t>lobby_player_frame</t>
+  </si>
+  <si>
+    <t>lobby_rank</t>
+  </si>
+  <si>
+    <t>lobby_setup</t>
+  </si>
+  <si>
+    <t>lobby_shop</t>
+  </si>
+  <si>
+    <t>login_btn_login</t>
+  </si>
+  <si>
+    <t>sp_872807620</t>
+  </si>
+  <si>
+    <t>login_dian</t>
+  </si>
+  <si>
+    <t>login_server</t>
+  </si>
+  <si>
+    <t>match_job</t>
+  </si>
+  <si>
+    <t>sp_1039151119</t>
+  </si>
+  <si>
+    <t>match_player</t>
+  </si>
+  <si>
+    <t>match_say</t>
+  </si>
+  <si>
+    <t>share_add</t>
+  </si>
+  <si>
+    <t>sp_428318215</t>
+  </si>
+  <si>
+    <t>share_bg</t>
+  </si>
+  <si>
+    <t>share_bg1</t>
+  </si>
+  <si>
+    <t>share_bg2</t>
+  </si>
+  <si>
+    <t>share_bg3</t>
+  </si>
+  <si>
+    <t>share_button_yellow</t>
+  </si>
+  <si>
+    <t>share_chat</t>
+  </si>
+  <si>
+    <t>share_circle1</t>
+  </si>
+  <si>
+    <t>share_circle2</t>
+  </si>
+  <si>
+    <t>share_close</t>
+  </si>
+  <si>
+    <t>share_gold</t>
+  </si>
+  <si>
+    <t>share_hero_name</t>
+  </si>
+  <si>
+    <t>share_item</t>
+  </si>
+  <si>
+    <t>share_item_bg</t>
+  </si>
+  <si>
+    <t>share_item_select</t>
+  </si>
+  <si>
+    <t>share_line</t>
+  </si>
+  <si>
+    <t>share_other</t>
+  </si>
+  <si>
+    <t>share_other1</t>
+  </si>
+  <si>
+    <t>share_other2</t>
+  </si>
+  <si>
+    <t>share_other3</t>
+  </si>
+  <si>
+    <t>share_radar</t>
+  </si>
+  <si>
+    <t>share_radar_bg</t>
+  </si>
+  <si>
+    <t>share_silver</t>
+  </si>
+  <si>
+    <t>share_skill</t>
+  </si>
+  <si>
+    <t>share_skin1</t>
+  </si>
+  <si>
+    <t>share_slider</t>
+  </si>
+  <si>
+    <t>share_slider_bg</t>
+  </si>
+  <si>
+    <t>share_star</t>
+  </si>
+  <si>
+    <t>share_title</t>
+  </si>
+  <si>
+    <t>share_title1_bg</t>
+  </si>
+  <si>
+    <t>share_title1_bg1</t>
+  </si>
+  <si>
+    <t>share_title_bg</t>
+  </si>
+  <si>
+    <t>share_title_bg1</t>
+  </si>
+  <si>
+    <t>share_why</t>
+  </si>
+  <si>
+    <t>share_yes</t>
+  </si>
+  <si>
+    <t>shop_item_bg</t>
+  </si>
+  <si>
+    <t>sp__20673955</t>
+  </si>
+  <si>
+    <t>shop_other1</t>
+  </si>
+  <si>
+    <t>shop_other2</t>
+  </si>
+  <si>
+    <t>shop_other3</t>
+  </si>
+  <si>
+    <t>shop_other4</t>
+  </si>
+  <si>
+    <t>shop_other5</t>
+  </si>
+  <si>
+    <t>Skill100204</t>
+  </si>
+  <si>
+    <t>sp_1715666246</t>
+  </si>
+  <si>
+    <t>Skill100205</t>
+  </si>
+  <si>
+    <t>Skill100206</t>
+  </si>
+  <si>
+    <t>Skill100404</t>
+  </si>
+  <si>
+    <t>Skill100405</t>
+  </si>
+  <si>
+    <t>Skill100406</t>
+  </si>
+  <si>
+    <t>GuideWindow</t>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+  </si>
+  <si>
+    <t>MessageBoxWindow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,14 +602,12 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,40 +667,50 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="0" builtinId="27"/>
+    <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -503,80 +1007,2980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="20.625" customWidth="1" style="3"/>
+    <col min="2" max="2" width="19.875" customWidth="1" style="3"/>
+    <col min="3" max="3" width="12.125" customWidth="1" style="3"/>
+    <col min="4" max="4" bestFit="1" width="19.125" customWidth="1" style="3"/>
+    <col min="5" max="5" bestFit="1" width="19.375" customWidth="1" style="3"/>
+    <col min="6" max="6" bestFit="1" width="26.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" ht="33.75" customHeight="1" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="37.5" s="9" customFormat="1">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    <row r="4">
+      <c r="A4" s="3">
+        <v>-257746109</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1252442483</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1453784</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>-1425025301</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-976912153</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1478258</v>
+      </c>
+      <c r="F5" s="3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>68308950</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-322493923</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>1019260065</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1017328225</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>1123422362</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1017328225</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>1904439952</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1643264599</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1428374535</v>
+      </c>
+      <c r="F9" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>-1553022821</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1643264599</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1428374535</v>
+      </c>
+      <c r="F10" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>1555606421</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-1643264599</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1428374535</v>
+      </c>
+      <c r="F11" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>-80690262</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1643264599</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1428374535</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>-699454701</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-1643264599</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1428374535</v>
+      </c>
+      <c r="F13" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>252311722</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30704076</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>64044992</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30704076</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>776920590</v>
+      </c>
+      <c r="B16" s="3">
+        <v>30704076</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>-2097447215</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30704076</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>1927502965</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-1787621370</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>1907269611</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1634278514</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1475827</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>-378521023</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1874317673</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>-1505326931</v>
+      </c>
+      <c r="B21" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>1933236192</v>
+      </c>
+      <c r="B22" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>1706018193</v>
+      </c>
+      <c r="B23" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>-1963399549</v>
+      </c>
+      <c r="B24" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>1908693252</v>
+      </c>
+      <c r="B25" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>-1577154619</v>
+      </c>
+      <c r="B26" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>-1185470549</v>
+      </c>
+      <c r="B27" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>1413635628</v>
+      </c>
+      <c r="B28" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>442595499</v>
+      </c>
+      <c r="B29" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>1545290477</v>
+      </c>
+      <c r="B30" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>439002458</v>
+      </c>
+      <c r="B31" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>243766147</v>
+      </c>
+      <c r="B32" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>-439262861</v>
+      </c>
+      <c r="B33" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>-1417288642</v>
+      </c>
+      <c r="B34" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>-162970238</v>
+      </c>
+      <c r="B35" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>1881181065</v>
+      </c>
+      <c r="B36" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>-1867970242</v>
+      </c>
+      <c r="B37" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>1480887207</v>
+      </c>
+      <c r="B38" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>-1511668192</v>
+      </c>
+      <c r="B39" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>872638635</v>
+      </c>
+      <c r="B40" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>-1849221552</v>
+      </c>
+      <c r="B41" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>-1765415213</v>
+      </c>
+      <c r="B42" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>-1743629732</v>
+      </c>
+      <c r="B43" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>-613532810</v>
+      </c>
+      <c r="B44" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>-860996724</v>
+      </c>
+      <c r="B45" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>261384694</v>
+      </c>
+      <c r="B46" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>560571912</v>
+      </c>
+      <c r="B47" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>-347768085</v>
+      </c>
+      <c r="B48" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>1804649977</v>
+      </c>
+      <c r="B49" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>-312904799</v>
+      </c>
+      <c r="B50" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>631566423</v>
+      </c>
+      <c r="B51" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>-1901846952</v>
+      </c>
+      <c r="B52" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>-2087322095</v>
+      </c>
+      <c r="B53" s="3">
+        <v>641594185</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>1856203750</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1697493859</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>1459031768</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1697493859</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>234463939</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1697493859</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>1557924855</v>
+      </c>
+      <c r="B57" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>1285436590</v>
+      </c>
+      <c r="B58" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>69845640</v>
+      </c>
+      <c r="B59" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>2010125228</v>
+      </c>
+      <c r="B60" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>-1545033900</v>
+      </c>
+      <c r="B61" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>691802370</v>
+      </c>
+      <c r="B62" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>1678420747</v>
+      </c>
+      <c r="B63" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>810152220</v>
+      </c>
+      <c r="B64" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>552983545</v>
+      </c>
+      <c r="B65" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>187594737</v>
+      </c>
+      <c r="B66" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>1133922542</v>
+      </c>
+      <c r="B67" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>-502207480</v>
+      </c>
+      <c r="B68" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>-277636975</v>
+      </c>
+      <c r="B69" s="3">
+        <v>292703195</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>688464109</v>
+      </c>
+      <c r="B70" s="3">
+        <v>-682406693</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>355193205</v>
+      </c>
+      <c r="B71" s="3">
+        <v>-682406693</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>1665898652</v>
+      </c>
+      <c r="B72" s="3">
+        <v>-682406693</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>838127239</v>
+      </c>
+      <c r="B73" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>292098887</v>
+      </c>
+      <c r="B74" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>-1436759370</v>
+      </c>
+      <c r="B75" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>-883040665</v>
+      </c>
+      <c r="B76" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>-759633700</v>
+      </c>
+      <c r="B77" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>-2079671966</v>
+      </c>
+      <c r="B78" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>-898325376</v>
+      </c>
+      <c r="B79" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>851481653</v>
+      </c>
+      <c r="B80" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>1001981197</v>
+      </c>
+      <c r="B81" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>2100299150</v>
+      </c>
+      <c r="B82" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>1470627725</v>
+      </c>
+      <c r="B83" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>308453566</v>
+      </c>
+      <c r="B84" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>946178124</v>
+      </c>
+      <c r="B85" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>-1745518492</v>
+      </c>
+      <c r="B86" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>-1701391336</v>
+      </c>
+      <c r="B87" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>226630296</v>
+      </c>
+      <c r="B88" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>-1901987644</v>
+      </c>
+      <c r="B89" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>424393879</v>
+      </c>
+      <c r="B90" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>628209291</v>
+      </c>
+      <c r="B91" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>1189302635</v>
+      </c>
+      <c r="B92" s="3">
+        <v>-65542374</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>1550502872</v>
+      </c>
+      <c r="B93" s="3">
+        <v>482291274</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>719119378</v>
+      </c>
+      <c r="B94" s="3">
+        <v>482291274</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>-2074866392</v>
+      </c>
+      <c r="B95" s="3">
+        <v>482291274</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>-264697624</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1557471277</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>-603773592</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1557471277</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>878245409</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1557471277</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>-1507543996</v>
+      </c>
+      <c r="B99" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>-1676088260</v>
+      </c>
+      <c r="B100" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>-1395112271</v>
+      </c>
+      <c r="B101" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>-410298387</v>
+      </c>
+      <c r="B102" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>-712152982</v>
+      </c>
+      <c r="B103" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>1461694536</v>
+      </c>
+      <c r="B104" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>-975617421</v>
+      </c>
+      <c r="B105" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>253510137</v>
+      </c>
+      <c r="B106" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>-1369527260</v>
+      </c>
+      <c r="B107" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>1403180067</v>
+      </c>
+      <c r="B108" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3">
+        <v>1819061676</v>
+      </c>
+      <c r="B109" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3">
+        <v>-1267122768</v>
+      </c>
+      <c r="B110" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3">
+        <v>-1474500060</v>
+      </c>
+      <c r="B111" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3">
+        <v>969611249</v>
+      </c>
+      <c r="B112" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3">
+        <v>-689819389</v>
+      </c>
+      <c r="B113" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3">
+        <v>-172312966</v>
+      </c>
+      <c r="B114" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3">
+        <v>-1295053375</v>
+      </c>
+      <c r="B115" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3">
+        <v>97134493</v>
+      </c>
+      <c r="B116" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3">
+        <v>105762258</v>
+      </c>
+      <c r="B117" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3">
+        <v>-1297123240</v>
+      </c>
+      <c r="B118" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3">
+        <v>1882406477</v>
+      </c>
+      <c r="B119" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3">
+        <v>-1195485210</v>
+      </c>
+      <c r="B120" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3">
+        <v>-1325064825</v>
+      </c>
+      <c r="B121" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3">
+        <v>1585463536</v>
+      </c>
+      <c r="B122" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3">
+        <v>-1899537868</v>
+      </c>
+      <c r="B123" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3">
+        <v>83290298</v>
+      </c>
+      <c r="B124" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3">
+        <v>-511011961</v>
+      </c>
+      <c r="B125" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>-1025145887</v>
+      </c>
+      <c r="B126" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>408284456</v>
+      </c>
+      <c r="B127" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3">
+        <v>1299831025</v>
+      </c>
+      <c r="B128" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3">
+        <v>-1976628278</v>
+      </c>
+      <c r="B129" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3">
+        <v>-1031925589</v>
+      </c>
+      <c r="B130" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3">
+        <v>1894982809</v>
+      </c>
+      <c r="B131" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3">
+        <v>-2121109836</v>
+      </c>
+      <c r="B132" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3">
+        <v>-367590771</v>
+      </c>
+      <c r="B133" s="3">
+        <v>502646517</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3">
+        <v>-1604905084</v>
+      </c>
+      <c r="B134" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3">
+        <v>-1416131283</v>
+      </c>
+      <c r="B135" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3">
+        <v>-1280041401</v>
+      </c>
+      <c r="B136" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3">
+        <v>1408622605</v>
+      </c>
+      <c r="B137" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3">
+        <v>-1184996614</v>
+      </c>
+      <c r="B138" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3">
+        <v>-743273753</v>
+      </c>
+      <c r="B139" s="3">
+        <v>-1087550218</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3">
+        <v>738946719</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>576545488</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>1855907347</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>-1145081060</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>-1488506594</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>-745009968</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1481531</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>-1287614635</v>
+      </c>
+      <c r="B146" s="3">
+        <v>-2023891807</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F146" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>-1625153888</v>
+      </c>
+      <c r="B147" s="3">
+        <v>-1392412074</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F147" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="B148" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F148" s="3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +3991,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>fileId</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>s__554521457</t>
+  </si>
+  <si>
+    <t>ExampleSQLite</t>
+  </si>
+  <si>
+    <t>s_1986374775</t>
   </si>
   <si>
     <t>ExampleXLua</t>
@@ -1007,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-699454701</v>
+        <v>-401975932</v>
       </c>
       <c r="B13" s="3">
         <v>-1643264599</v>
@@ -1285,10 +1291,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>252311722</v>
+        <v>-699454701</v>
       </c>
       <c r="B14" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>34</v>
@@ -1297,15 +1303,15 @@
         <v>35</v>
       </c>
       <c r="E14" s="3">
-        <v>1481531</v>
+        <v>1428374535</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>64044992</v>
+        <v>252311722</v>
       </c>
       <c r="B15" s="3">
         <v>30704076</v>
@@ -1325,7 +1331,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>776920590</v>
+        <v>64044992</v>
       </c>
       <c r="B16" s="3">
         <v>30704076</v>
@@ -1345,7 +1351,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-2097447215</v>
+        <v>776920590</v>
       </c>
       <c r="B17" s="3">
         <v>30704076</v>
@@ -1365,10 +1371,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1927502965</v>
+        <v>-2097447215</v>
       </c>
       <c r="B18" s="3">
-        <v>-1787621370</v>
+        <v>30704076</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -1385,10 +1391,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1907269611</v>
+        <v>1927502965</v>
       </c>
       <c r="B19" s="3">
-        <v>1634278514</v>
+        <v>-1787621370</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
@@ -1397,7 +1403,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="3">
-        <v>1475827</v>
+        <v>1481531</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1405,10 +1411,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-378521023</v>
+        <v>1907269611</v>
       </c>
       <c r="B20" s="3">
-        <v>1874317673</v>
+        <v>1634278514</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>46</v>
@@ -1417,7 +1423,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="3">
-        <v>1481531</v>
+        <v>1475827</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1425,10 +1431,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1505326931</v>
+        <v>-378521023</v>
       </c>
       <c r="B21" s="3">
-        <v>641594185</v>
+        <v>1874317673</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>48</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1933236192</v>
+        <v>-1505326931</v>
       </c>
       <c r="B22" s="3">
         <v>641594185</v>
@@ -1454,7 +1460,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3">
         <v>1481531</v>
@@ -1465,16 +1471,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1706018193</v>
+        <v>1933236192</v>
       </c>
       <c r="B23" s="3">
         <v>641594185</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>1481531</v>
@@ -1485,16 +1491,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-1963399549</v>
+        <v>1706018193</v>
       </c>
       <c r="B24" s="3">
         <v>641594185</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3">
         <v>1481531</v>
@@ -1505,16 +1511,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1908693252</v>
+        <v>-1963399549</v>
       </c>
       <c r="B25" s="3">
         <v>641594185</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3">
         <v>1481531</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1577154619</v>
+        <v>1908693252</v>
       </c>
       <c r="B26" s="3">
         <v>641594185</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3">
         <v>1481531</v>
@@ -1545,16 +1551,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-1185470549</v>
+        <v>-1577154619</v>
       </c>
       <c r="B27" s="3">
         <v>641594185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="3">
         <v>1481531</v>
@@ -1565,16 +1571,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1413635628</v>
+        <v>-1185470549</v>
       </c>
       <c r="B28" s="3">
         <v>641594185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="3">
         <v>1481531</v>
@@ -1585,16 +1591,16 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>442595499</v>
+        <v>1413635628</v>
       </c>
       <c r="B29" s="3">
         <v>641594185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3">
         <v>1481531</v>
@@ -1605,16 +1611,16 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>1545290477</v>
+        <v>442595499</v>
       </c>
       <c r="B30" s="3">
         <v>641594185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3">
         <v>1481531</v>
@@ -1625,16 +1631,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>439002458</v>
+        <v>1545290477</v>
       </c>
       <c r="B31" s="3">
         <v>641594185</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3">
         <v>1481531</v>
@@ -1645,16 +1651,16 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>243766147</v>
+        <v>439002458</v>
       </c>
       <c r="B32" s="3">
         <v>641594185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3">
         <v>1481531</v>
@@ -1665,16 +1671,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>-439262861</v>
+        <v>243766147</v>
       </c>
       <c r="B33" s="3">
         <v>641594185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3">
         <v>1481531</v>
@@ -1685,16 +1691,16 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-1417288642</v>
+        <v>-439262861</v>
       </c>
       <c r="B34" s="3">
         <v>641594185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3">
         <v>1481531</v>
@@ -1705,16 +1711,16 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-162970238</v>
+        <v>-1417288642</v>
       </c>
       <c r="B35" s="3">
         <v>641594185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3">
         <v>1481531</v>
@@ -1725,16 +1731,16 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>1881181065</v>
+        <v>-162970238</v>
       </c>
       <c r="B36" s="3">
         <v>641594185</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3">
         <v>1481531</v>
@@ -1745,16 +1751,16 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-1867970242</v>
+        <v>1881181065</v>
       </c>
       <c r="B37" s="3">
         <v>641594185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3">
         <v>1481531</v>
@@ -1765,16 +1771,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>1480887207</v>
+        <v>-1867970242</v>
       </c>
       <c r="B38" s="3">
         <v>641594185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3">
         <v>1481531</v>
@@ -1785,16 +1791,16 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>-1511668192</v>
+        <v>1480887207</v>
       </c>
       <c r="B39" s="3">
         <v>641594185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="3">
         <v>1481531</v>
@@ -1805,16 +1811,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>872638635</v>
+        <v>-1511668192</v>
       </c>
       <c r="B40" s="3">
         <v>641594185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3">
         <v>1481531</v>
@@ -1825,16 +1831,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>-1849221552</v>
+        <v>872638635</v>
       </c>
       <c r="B41" s="3">
         <v>641594185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="3">
         <v>1481531</v>
@@ -1845,16 +1851,16 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-1765415213</v>
+        <v>-1849221552</v>
       </c>
       <c r="B42" s="3">
         <v>641594185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3">
         <v>1481531</v>
@@ -1865,16 +1871,16 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>-1743629732</v>
+        <v>-1765415213</v>
       </c>
       <c r="B43" s="3">
         <v>641594185</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3">
         <v>1481531</v>
@@ -1885,16 +1891,16 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-613532810</v>
+        <v>-1743629732</v>
       </c>
       <c r="B44" s="3">
         <v>641594185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="3">
         <v>1481531</v>
@@ -1905,16 +1911,16 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-860996724</v>
+        <v>-613532810</v>
       </c>
       <c r="B45" s="3">
         <v>641594185</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="3">
         <v>1481531</v>
@@ -1925,16 +1931,16 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>261384694</v>
+        <v>-860996724</v>
       </c>
       <c r="B46" s="3">
         <v>641594185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="3">
         <v>1481531</v>
@@ -1945,16 +1951,16 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>560571912</v>
+        <v>261384694</v>
       </c>
       <c r="B47" s="3">
         <v>641594185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="3">
         <v>1481531</v>
@@ -1965,16 +1971,16 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-347768085</v>
+        <v>560571912</v>
       </c>
       <c r="B48" s="3">
         <v>641594185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E48" s="3">
         <v>1481531</v>
@@ -1985,16 +1991,16 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>1804649977</v>
+        <v>-347768085</v>
       </c>
       <c r="B49" s="3">
         <v>641594185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3">
         <v>1481531</v>
@@ -2005,16 +2011,16 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-312904799</v>
+        <v>1804649977</v>
       </c>
       <c r="B50" s="3">
         <v>641594185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E50" s="3">
         <v>1481531</v>
@@ -2025,16 +2031,16 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>631566423</v>
+        <v>-312904799</v>
       </c>
       <c r="B51" s="3">
         <v>641594185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E51" s="3">
         <v>1481531</v>
@@ -2045,16 +2051,16 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-1901846952</v>
+        <v>631566423</v>
       </c>
       <c r="B52" s="3">
         <v>641594185</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E52" s="3">
         <v>1481531</v>
@@ -2065,16 +2071,16 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-2087322095</v>
+        <v>-1901846952</v>
       </c>
       <c r="B53" s="3">
         <v>641594185</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E53" s="3">
         <v>1481531</v>
@@ -2085,16 +2091,16 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>1856203750</v>
+        <v>-2087322095</v>
       </c>
       <c r="B54" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E54" s="3">
         <v>1481531</v>
@@ -2105,7 +2111,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>1459031768</v>
+        <v>1856203750</v>
       </c>
       <c r="B55" s="3">
         <v>1697493859</v>
@@ -2114,7 +2120,7 @@
         <v>84</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="3">
         <v>1481531</v>
@@ -2125,16 +2131,16 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>234463939</v>
+        <v>1459031768</v>
       </c>
       <c r="B56" s="3">
         <v>1697493859</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E56" s="3">
         <v>1481531</v>
@@ -2145,16 +2151,16 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>1557924855</v>
+        <v>234463939</v>
       </c>
       <c r="B57" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E57" s="3">
         <v>1481531</v>
@@ -2165,7 +2171,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1285436590</v>
+        <v>1557924855</v>
       </c>
       <c r="B58" s="3">
         <v>292703195</v>
@@ -2174,7 +2180,7 @@
         <v>88</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="3">
         <v>1481531</v>
@@ -2185,16 +2191,16 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>69845640</v>
+        <v>1285436590</v>
       </c>
       <c r="B59" s="3">
         <v>292703195</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E59" s="3">
         <v>1481531</v>
@@ -2205,16 +2211,16 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>2010125228</v>
+        <v>69845640</v>
       </c>
       <c r="B60" s="3">
         <v>292703195</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="3">
         <v>1481531</v>
@@ -2225,16 +2231,16 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-1545033900</v>
+        <v>2010125228</v>
       </c>
       <c r="B61" s="3">
         <v>292703195</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="3">
         <v>1481531</v>
@@ -2245,16 +2251,16 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>691802370</v>
+        <v>-1545033900</v>
       </c>
       <c r="B62" s="3">
         <v>292703195</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="3">
         <v>1481531</v>
@@ -2265,16 +2271,16 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>1678420747</v>
+        <v>691802370</v>
       </c>
       <c r="B63" s="3">
         <v>292703195</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="3">
         <v>1481531</v>
@@ -2285,16 +2291,16 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>810152220</v>
+        <v>1678420747</v>
       </c>
       <c r="B64" s="3">
         <v>292703195</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="3">
         <v>1481531</v>
@@ -2305,16 +2311,16 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>552983545</v>
+        <v>810152220</v>
       </c>
       <c r="B65" s="3">
         <v>292703195</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="3">
         <v>1481531</v>
@@ -2325,16 +2331,16 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>187594737</v>
+        <v>552983545</v>
       </c>
       <c r="B66" s="3">
         <v>292703195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="3">
         <v>1481531</v>
@@ -2345,16 +2351,16 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>1133922542</v>
+        <v>187594737</v>
       </c>
       <c r="B67" s="3">
         <v>292703195</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="3">
         <v>1481531</v>
@@ -2365,16 +2371,16 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-502207480</v>
+        <v>1133922542</v>
       </c>
       <c r="B68" s="3">
         <v>292703195</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="3">
         <v>1481531</v>
@@ -2385,16 +2391,16 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-277636975</v>
+        <v>-502207480</v>
       </c>
       <c r="B69" s="3">
         <v>292703195</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="3">
         <v>1481531</v>
@@ -2405,16 +2411,16 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>688464109</v>
+        <v>-277636975</v>
       </c>
       <c r="B70" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E70" s="3">
         <v>1481531</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>355193205</v>
+        <v>688464109</v>
       </c>
       <c r="B71" s="3">
         <v>-682406693</v>
@@ -2434,7 +2440,7 @@
         <v>102</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="3">
         <v>1481531</v>
@@ -2445,16 +2451,16 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>1665898652</v>
+        <v>355193205</v>
       </c>
       <c r="B72" s="3">
         <v>-682406693</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E72" s="3">
         <v>1481531</v>
@@ -2465,16 +2471,16 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>838127239</v>
+        <v>1665898652</v>
       </c>
       <c r="B73" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="3">
         <v>1481531</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>292098887</v>
+        <v>838127239</v>
       </c>
       <c r="B74" s="3">
         <v>-65542374</v>
@@ -2494,7 +2500,7 @@
         <v>106</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="3">
         <v>1481531</v>
@@ -2505,16 +2511,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-1436759370</v>
+        <v>292098887</v>
       </c>
       <c r="B75" s="3">
         <v>-65542374</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E75" s="3">
         <v>1481531</v>
@@ -2525,16 +2531,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-883040665</v>
+        <v>-1436759370</v>
       </c>
       <c r="B76" s="3">
         <v>-65542374</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="3">
         <v>1481531</v>
@@ -2545,16 +2551,16 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-759633700</v>
+        <v>-883040665</v>
       </c>
       <c r="B77" s="3">
         <v>-65542374</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="3">
         <v>1481531</v>
@@ -2565,16 +2571,16 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-2079671966</v>
+        <v>-759633700</v>
       </c>
       <c r="B78" s="3">
         <v>-65542374</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="3">
         <v>1481531</v>
@@ -2585,16 +2591,16 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-898325376</v>
+        <v>-2079671966</v>
       </c>
       <c r="B79" s="3">
         <v>-65542374</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="3">
         <v>1481531</v>
@@ -2605,16 +2611,16 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>851481653</v>
+        <v>-898325376</v>
       </c>
       <c r="B80" s="3">
         <v>-65542374</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="3">
         <v>1481531</v>
@@ -2625,16 +2631,16 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>1001981197</v>
+        <v>851481653</v>
       </c>
       <c r="B81" s="3">
         <v>-65542374</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="3">
         <v>1481531</v>
@@ -2645,16 +2651,16 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>2100299150</v>
+        <v>1001981197</v>
       </c>
       <c r="B82" s="3">
         <v>-65542374</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="3">
         <v>1481531</v>
@@ -2665,16 +2671,16 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>1470627725</v>
+        <v>2100299150</v>
       </c>
       <c r="B83" s="3">
         <v>-65542374</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="3">
         <v>1481531</v>
@@ -2685,16 +2691,16 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>308453566</v>
+        <v>1470627725</v>
       </c>
       <c r="B84" s="3">
         <v>-65542374</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="3">
         <v>1481531</v>
@@ -2705,16 +2711,16 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>946178124</v>
+        <v>308453566</v>
       </c>
       <c r="B85" s="3">
         <v>-65542374</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="3">
         <v>1481531</v>
@@ -2725,16 +2731,16 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>-1745518492</v>
+        <v>946178124</v>
       </c>
       <c r="B86" s="3">
         <v>-65542374</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="3">
         <v>1481531</v>
@@ -2745,16 +2751,16 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-1701391336</v>
+        <v>-1745518492</v>
       </c>
       <c r="B87" s="3">
         <v>-65542374</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="3">
         <v>1481531</v>
@@ -2765,16 +2771,16 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>226630296</v>
+        <v>-1701391336</v>
       </c>
       <c r="B88" s="3">
         <v>-65542374</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="3">
         <v>1481531</v>
@@ -2785,16 +2791,16 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-1901987644</v>
+        <v>226630296</v>
       </c>
       <c r="B89" s="3">
         <v>-65542374</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="3">
         <v>1481531</v>
@@ -2805,16 +2811,16 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>424393879</v>
+        <v>-1901987644</v>
       </c>
       <c r="B90" s="3">
         <v>-65542374</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="3">
         <v>1481531</v>
@@ -2825,16 +2831,16 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>628209291</v>
+        <v>424393879</v>
       </c>
       <c r="B91" s="3">
         <v>-65542374</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="3">
         <v>1481531</v>
@@ -2845,16 +2851,16 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>1189302635</v>
+        <v>628209291</v>
       </c>
       <c r="B92" s="3">
         <v>-65542374</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="3">
         <v>1481531</v>
@@ -2865,16 +2871,16 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>1550502872</v>
+        <v>1189302635</v>
       </c>
       <c r="B93" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E93" s="3">
         <v>1481531</v>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>719119378</v>
+        <v>1550502872</v>
       </c>
       <c r="B94" s="3">
         <v>482291274</v>
@@ -2894,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="3">
         <v>1481531</v>
@@ -2905,16 +2911,16 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>-2074866392</v>
+        <v>719119378</v>
       </c>
       <c r="B95" s="3">
         <v>482291274</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E95" s="3">
         <v>1481531</v>
@@ -2925,16 +2931,16 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-264697624</v>
+        <v>-2074866392</v>
       </c>
       <c r="B96" s="3">
-        <v>1557471277</v>
+        <v>482291274</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E96" s="3">
         <v>1481531</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-603773592</v>
+        <v>-264697624</v>
       </c>
       <c r="B97" s="3">
         <v>1557471277</v>
@@ -2954,7 +2960,7 @@
         <v>131</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="3">
         <v>1481531</v>
@@ -2965,16 +2971,16 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>878245409</v>
+        <v>-603773592</v>
       </c>
       <c r="B98" s="3">
         <v>1557471277</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E98" s="3">
         <v>1481531</v>
@@ -2985,16 +2991,16 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-1507543996</v>
+        <v>878245409</v>
       </c>
       <c r="B99" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E99" s="3">
         <v>1481531</v>
@@ -3005,7 +3011,7 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-1676088260</v>
+        <v>-1507543996</v>
       </c>
       <c r="B100" s="3">
         <v>502646517</v>
@@ -3014,7 +3020,7 @@
         <v>135</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3">
         <v>1481531</v>
@@ -3025,16 +3031,16 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1395112271</v>
+        <v>-1676088260</v>
       </c>
       <c r="B101" s="3">
         <v>502646517</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E101" s="3">
         <v>1481531</v>
@@ -3045,16 +3051,16 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-410298387</v>
+        <v>-1395112271</v>
       </c>
       <c r="B102" s="3">
         <v>502646517</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="3">
         <v>1481531</v>
@@ -3065,16 +3071,16 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-712152982</v>
+        <v>-410298387</v>
       </c>
       <c r="B103" s="3">
         <v>502646517</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="3">
         <v>1481531</v>
@@ -3085,16 +3091,16 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>1461694536</v>
+        <v>-712152982</v>
       </c>
       <c r="B104" s="3">
         <v>502646517</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="3">
         <v>1481531</v>
@@ -3105,16 +3111,16 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-975617421</v>
+        <v>1461694536</v>
       </c>
       <c r="B105" s="3">
         <v>502646517</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="3">
         <v>1481531</v>
@@ -3125,16 +3131,16 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>253510137</v>
+        <v>-975617421</v>
       </c>
       <c r="B106" s="3">
         <v>502646517</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="3">
         <v>1481531</v>
@@ -3145,16 +3151,16 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-1369527260</v>
+        <v>253510137</v>
       </c>
       <c r="B107" s="3">
         <v>502646517</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E107" s="3">
         <v>1481531</v>
@@ -3165,16 +3171,16 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>1403180067</v>
+        <v>-1369527260</v>
       </c>
       <c r="B108" s="3">
         <v>502646517</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E108" s="3">
         <v>1481531</v>
@@ -3185,16 +3191,16 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>1819061676</v>
+        <v>1403180067</v>
       </c>
       <c r="B109" s="3">
         <v>502646517</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E109" s="3">
         <v>1481531</v>
@@ -3205,16 +3211,16 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>-1267122768</v>
+        <v>1819061676</v>
       </c>
       <c r="B110" s="3">
         <v>502646517</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E110" s="3">
         <v>1481531</v>
@@ -3225,16 +3231,16 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>-1474500060</v>
+        <v>-1267122768</v>
       </c>
       <c r="B111" s="3">
         <v>502646517</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="3">
         <v>1481531</v>
@@ -3245,16 +3251,16 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>969611249</v>
+        <v>-1474500060</v>
       </c>
       <c r="B112" s="3">
         <v>502646517</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E112" s="3">
         <v>1481531</v>
@@ -3265,16 +3271,16 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-689819389</v>
+        <v>969611249</v>
       </c>
       <c r="B113" s="3">
         <v>502646517</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E113" s="3">
         <v>1481531</v>
@@ -3285,16 +3291,16 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-172312966</v>
+        <v>-689819389</v>
       </c>
       <c r="B114" s="3">
         <v>502646517</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E114" s="3">
         <v>1481531</v>
@@ -3305,16 +3311,16 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>-1295053375</v>
+        <v>-172312966</v>
       </c>
       <c r="B115" s="3">
         <v>502646517</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E115" s="3">
         <v>1481531</v>
@@ -3325,16 +3331,16 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>97134493</v>
+        <v>-1295053375</v>
       </c>
       <c r="B116" s="3">
         <v>502646517</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E116" s="3">
         <v>1481531</v>
@@ -3345,16 +3351,16 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>105762258</v>
+        <v>97134493</v>
       </c>
       <c r="B117" s="3">
         <v>502646517</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E117" s="3">
         <v>1481531</v>
@@ -3365,16 +3371,16 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1297123240</v>
+        <v>105762258</v>
       </c>
       <c r="B118" s="3">
         <v>502646517</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E118" s="3">
         <v>1481531</v>
@@ -3385,16 +3391,16 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1882406477</v>
+        <v>-1297123240</v>
       </c>
       <c r="B119" s="3">
         <v>502646517</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E119" s="3">
         <v>1481531</v>
@@ -3405,16 +3411,16 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>-1195485210</v>
+        <v>1882406477</v>
       </c>
       <c r="B120" s="3">
         <v>502646517</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="3">
         <v>1481531</v>
@@ -3425,16 +3431,16 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-1325064825</v>
+        <v>-1195485210</v>
       </c>
       <c r="B121" s="3">
         <v>502646517</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="3">
         <v>1481531</v>
@@ -3445,16 +3451,16 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>1585463536</v>
+        <v>-1325064825</v>
       </c>
       <c r="B122" s="3">
         <v>502646517</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="3">
         <v>1481531</v>
@@ -3465,16 +3471,16 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1899537868</v>
+        <v>1585463536</v>
       </c>
       <c r="B123" s="3">
         <v>502646517</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="3">
         <v>1481531</v>
@@ -3485,16 +3491,16 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>83290298</v>
+        <v>-1899537868</v>
       </c>
       <c r="B124" s="3">
         <v>502646517</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="3">
         <v>1481531</v>
@@ -3505,16 +3511,16 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>-511011961</v>
+        <v>83290298</v>
       </c>
       <c r="B125" s="3">
         <v>502646517</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="3">
         <v>1481531</v>
@@ -3525,16 +3531,16 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-1025145887</v>
+        <v>-511011961</v>
       </c>
       <c r="B126" s="3">
         <v>502646517</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="3">
         <v>1481531</v>
@@ -3545,16 +3551,16 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>408284456</v>
+        <v>-1025145887</v>
       </c>
       <c r="B127" s="3">
         <v>502646517</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="3">
         <v>1481531</v>
@@ -3565,16 +3571,16 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1299831025</v>
+        <v>408284456</v>
       </c>
       <c r="B128" s="3">
         <v>502646517</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="3">
         <v>1481531</v>
@@ -3585,16 +3591,16 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-1976628278</v>
+        <v>1299831025</v>
       </c>
       <c r="B129" s="3">
         <v>502646517</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="3">
         <v>1481531</v>
@@ -3605,16 +3611,16 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-1031925589</v>
+        <v>-1976628278</v>
       </c>
       <c r="B130" s="3">
         <v>502646517</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="3">
         <v>1481531</v>
@@ -3625,16 +3631,16 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>1894982809</v>
+        <v>-1031925589</v>
       </c>
       <c r="B131" s="3">
         <v>502646517</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="3">
         <v>1481531</v>
@@ -3645,16 +3651,16 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-2121109836</v>
+        <v>1894982809</v>
       </c>
       <c r="B132" s="3">
         <v>502646517</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="3">
         <v>1481531</v>
@@ -3665,16 +3671,16 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-367590771</v>
+        <v>-2121109836</v>
       </c>
       <c r="B133" s="3">
         <v>502646517</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="3">
         <v>1481531</v>
@@ -3685,16 +3691,16 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-1604905084</v>
+        <v>-367590771</v>
       </c>
       <c r="B134" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E134" s="3">
         <v>1481531</v>
@@ -3705,7 +3711,7 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-1416131283</v>
+        <v>-1604905084</v>
       </c>
       <c r="B135" s="3">
         <v>-1087550218</v>
@@ -3714,7 +3720,7 @@
         <v>171</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E135" s="3">
         <v>1481531</v>
@@ -3725,16 +3731,16 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-1280041401</v>
+        <v>-1416131283</v>
       </c>
       <c r="B136" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E136" s="3">
         <v>1481531</v>
@@ -3745,16 +3751,16 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>1408622605</v>
+        <v>-1280041401</v>
       </c>
       <c r="B137" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E137" s="3">
         <v>1481531</v>
@@ -3765,16 +3771,16 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-1184996614</v>
+        <v>1408622605</v>
       </c>
       <c r="B138" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E138" s="3">
         <v>1481531</v>
@@ -3785,16 +3791,16 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-743273753</v>
+        <v>-1184996614</v>
       </c>
       <c r="B139" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E139" s="3">
         <v>1481531</v>
@@ -3805,16 +3811,16 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>738946719</v>
+        <v>-743273753</v>
       </c>
       <c r="B140" s="3">
-        <v>1508121002</v>
+        <v>-1087550218</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E140" s="3">
         <v>1481531</v>
@@ -3825,7 +3831,7 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>576545488</v>
+        <v>738946719</v>
       </c>
       <c r="B141" s="3">
         <v>1508121002</v>
@@ -3834,7 +3840,7 @@
         <v>178</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E141" s="3">
         <v>1481531</v>
@@ -3845,16 +3851,16 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>1855907347</v>
+        <v>576545488</v>
       </c>
       <c r="B142" s="3">
         <v>1508121002</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E142" s="3">
         <v>1481531</v>
@@ -3865,16 +3871,16 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-1145081060</v>
+        <v>1855907347</v>
       </c>
       <c r="B143" s="3">
         <v>1508121002</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E143" s="3">
         <v>1481531</v>
@@ -3885,16 +3891,16 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>-1488506594</v>
+        <v>-1145081060</v>
       </c>
       <c r="B144" s="3">
         <v>1508121002</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E144" s="3">
         <v>1481531</v>
@@ -3905,16 +3911,16 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-745009968</v>
+        <v>-1488506594</v>
       </c>
       <c r="B145" s="3">
         <v>1508121002</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E145" s="3">
         <v>1481531</v>
@@ -3925,36 +3931,36 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1287614635</v>
+        <v>-745009968</v>
       </c>
       <c r="B146" s="3">
-        <v>-2023891807</v>
+        <v>1508121002</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E146" s="3">
-        <v>1190352690</v>
+        <v>1481531</v>
       </c>
       <c r="F146" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1625153888</v>
+        <v>-1287614635</v>
       </c>
       <c r="B147" s="3">
-        <v>-1392412074</v>
+        <v>-2023891807</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E147" s="3">
         <v>1190352690</v>
@@ -3965,21 +3971,41 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>1299702156</v>
+        <v>-1625153888</v>
       </c>
       <c r="B148" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E148" s="3">
         <v>1190352690</v>
       </c>
       <c r="F148" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="B149" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1190352690</v>
+      </c>
+      <c r="F149" s="3">
         <v>15</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityFramework\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>fileId</t>
   </si>
@@ -30,12 +30,12 @@
     <t>inSide</t>
   </si>
   <si>
+    <t>ext</t>
+  </si>
+  <si>
     <t>outSide</t>
   </si>
   <si>
-    <t>extId</t>
-  </si>
-  <si>
     <t>extEnumValue</t>
   </si>
   <si>
@@ -45,6 +45,23 @@
     <t>string</t>
   </si>
   <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t>s</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>文件id</t>
   </si>
   <si>
@@ -54,30 +71,39 @@
     <t>内部资源路径</t>
   </si>
   <si>
+    <t>扩展名</t>
+  </si>
+  <si>
     <t>外部资源路径</t>
   </si>
   <si>
-    <t>扩展名id</t>
-  </si>
-  <si>
     <t>扩展名枚举值</t>
   </si>
   <si>
     <t>FZY4JW_0</t>
   </si>
   <si>
+    <t>.TTF</t>
+  </si>
+  <si>
     <t>o_1351248175</t>
   </si>
   <si>
     <t>GuideMaskShader</t>
   </si>
   <si>
+    <t>.mat</t>
+  </si>
+  <si>
     <t>o__1445529088</t>
   </si>
   <si>
     <t>pf_hero_1002</t>
   </si>
   <si>
+    <t>.prefab</t>
+  </si>
+  <si>
     <t>o_362012243</t>
   </si>
   <si>
@@ -96,6 +122,9 @@
     <t>bx_map_pve_1</t>
   </si>
   <si>
+    <t>.unity</t>
+  </si>
+  <si>
     <t>s_1952168169</t>
   </si>
   <si>
@@ -123,15 +152,24 @@
     <t>s_1986374775</t>
   </si>
   <si>
+    <t>ExampleTerrain</t>
+  </si>
+  <si>
+    <t>s__1141265897</t>
+  </si>
+  <si>
+    <t>ExampleXLS</t>
+  </si>
+  <si>
     <t>ExampleXLua</t>
   </si>
   <si>
-    <t>s__1141265897</t>
-  </si>
-  <si>
     <t>chgPowerCircle1</t>
   </si>
   <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>o_234754743</t>
   </si>
   <si>
@@ -162,6 +200,9 @@
     <t>LobbyBackground</t>
   </si>
   <si>
+    <t>.jpg</t>
+  </si>
+  <si>
     <t>o_321907647</t>
   </si>
   <si>
@@ -574,6 +615,12 @@
   </si>
   <si>
     <t>Skill100406</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>GuideWindow</t>
@@ -590,16 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -614,6 +655,19 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -673,44 +727,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,21 +1067,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="20.625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="19.875" customWidth="1" style="3"/>
-    <col min="3" max="3" width="12.125" customWidth="1" style="3"/>
-    <col min="4" max="4" bestFit="1" width="19.125" customWidth="1" style="3"/>
-    <col min="5" max="5" bestFit="1" width="19.375" customWidth="1" style="3"/>
-    <col min="6" max="6" bestFit="1" width="26.125" customWidth="1" style="3"/>
+    <col min="1" max="1" bestFit="1" width="20.6328125" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="12.54296875" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="25.453125" customWidth="1" style="3"/>
+    <col min="4" max="4" bestFit="1" width="11.36328125" customWidth="1" style="3"/>
+    <col min="5" max="5" bestFit="1" width="19.08984375" customWidth="1" style="3"/>
+    <col min="6" max="6" bestFit="1" width="18.453125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="5" customFormat="1">
@@ -1059,34 +1114,34 @@
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="37.5" s="9" customFormat="1">
+    <row r="3" ht="17.5" s="9" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1097,13 +1152,13 @@
         <v>-1252442483</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1453784</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1117,13 +1172,13 @@
         <v>-976912153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1478258</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>12</v>
@@ -1137,13 +1192,13 @@
         <v>-322493923</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1190352690</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="3">
         <v>15</v>
@@ -1157,13 +1212,13 @@
         <v>1017328225</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1190352690</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="3">
         <v>15</v>
@@ -1177,13 +1232,13 @@
         <v>1017328225</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1190352690</v>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>15</v>
@@ -1197,13 +1252,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1428374535</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="3">
         <v>23</v>
@@ -1217,13 +1272,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1428374535</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>23</v>
@@ -1237,13 +1292,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3">
-        <v>1428374535</v>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="3">
         <v>23</v>
@@ -1257,13 +1312,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1428374535</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>23</v>
@@ -1277,13 +1332,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1428374535</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>23</v>
@@ -1291,19 +1346,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-699454701</v>
+        <v>-1079029748</v>
       </c>
       <c r="B14" s="3">
         <v>-1643264599</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1428374535</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>23</v>
@@ -1311,59 +1366,59 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>252311722</v>
+        <v>2045054782</v>
       </c>
       <c r="B15" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1481531</v>
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>64044992</v>
+        <v>-699454701</v>
       </c>
       <c r="B16" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1481531</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>776920590</v>
+        <v>252311722</v>
       </c>
       <c r="B17" s="3">
         <v>30704076</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1371,19 +1426,19 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-2097447215</v>
+        <v>64044992</v>
       </c>
       <c r="B18" s="3">
         <v>30704076</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1391,19 +1446,19 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1927502965</v>
+        <v>776920590</v>
       </c>
       <c r="B19" s="3">
-        <v>-1787621370</v>
+        <v>30704076</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1411,19 +1466,19 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1907269611</v>
+        <v>-2097447215</v>
       </c>
       <c r="B20" s="3">
-        <v>1634278514</v>
+        <v>30704076</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1475827</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1431,19 +1486,19 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-378521023</v>
+        <v>1927502965</v>
       </c>
       <c r="B21" s="3">
-        <v>1874317673</v>
+        <v>-1787621370</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1451,19 +1506,19 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1505326931</v>
+        <v>1907269611</v>
       </c>
       <c r="B22" s="3">
-        <v>641594185</v>
+        <v>1634278514</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1481531</v>
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1471,19 +1526,19 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1933236192</v>
+        <v>-378521023</v>
       </c>
       <c r="B23" s="3">
-        <v>641594185</v>
+        <v>1874317673</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1491,19 +1546,19 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1706018193</v>
+        <v>-1505326931</v>
       </c>
       <c r="B24" s="3">
         <v>641594185</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1511,19 +1566,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-1963399549</v>
+        <v>1933236192</v>
       </c>
       <c r="B25" s="3">
         <v>641594185</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1531,19 +1586,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1908693252</v>
+        <v>1706018193</v>
       </c>
       <c r="B26" s="3">
         <v>641594185</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1551,19 +1606,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-1577154619</v>
+        <v>-1963399549</v>
       </c>
       <c r="B27" s="3">
         <v>641594185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1571,19 +1626,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1185470549</v>
+        <v>1908693252</v>
       </c>
       <c r="B28" s="3">
         <v>641594185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -1591,19 +1646,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1413635628</v>
+        <v>-1577154619</v>
       </c>
       <c r="B29" s="3">
         <v>641594185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1611,19 +1666,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>442595499</v>
+        <v>-1185470549</v>
       </c>
       <c r="B30" s="3">
         <v>641594185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1631,19 +1686,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1545290477</v>
+        <v>1413635628</v>
       </c>
       <c r="B31" s="3">
         <v>641594185</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1481531</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1651,19 +1706,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>439002458</v>
+        <v>442595499</v>
       </c>
       <c r="B32" s="3">
         <v>641594185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1671,19 +1726,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>243766147</v>
+        <v>1545290477</v>
       </c>
       <c r="B33" s="3">
         <v>641594185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1691,19 +1746,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-439262861</v>
+        <v>439002458</v>
       </c>
       <c r="B34" s="3">
         <v>641594185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1711,19 +1766,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-1417288642</v>
+        <v>243766147</v>
       </c>
       <c r="B35" s="3">
         <v>641594185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1731,19 +1786,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>-162970238</v>
+        <v>-439262861</v>
       </c>
       <c r="B36" s="3">
         <v>641594185</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1751,19 +1806,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>1881181065</v>
+        <v>-1417288642</v>
       </c>
       <c r="B37" s="3">
         <v>641594185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1771,19 +1826,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-1867970242</v>
+        <v>-162970238</v>
       </c>
       <c r="B38" s="3">
         <v>641594185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1791,19 +1846,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1480887207</v>
+        <v>1881181065</v>
       </c>
       <c r="B39" s="3">
         <v>641594185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1811,19 +1866,19 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>-1511668192</v>
+        <v>-1867970242</v>
       </c>
       <c r="B40" s="3">
         <v>641594185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1831,19 +1886,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>872638635</v>
+        <v>1480887207</v>
       </c>
       <c r="B41" s="3">
         <v>641594185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1851,19 +1906,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-1849221552</v>
+        <v>-1511668192</v>
       </c>
       <c r="B42" s="3">
         <v>641594185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1871,19 +1926,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>-1765415213</v>
+        <v>872638635</v>
       </c>
       <c r="B43" s="3">
         <v>641594185</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1891,19 +1946,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-1743629732</v>
+        <v>-1849221552</v>
       </c>
       <c r="B44" s="3">
         <v>641594185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1911,19 +1966,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-613532810</v>
+        <v>-1765415213</v>
       </c>
       <c r="B45" s="3">
         <v>641594185</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1931,19 +1986,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-860996724</v>
+        <v>-1743629732</v>
       </c>
       <c r="B46" s="3">
         <v>641594185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1951,19 +2006,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>261384694</v>
+        <v>-613532810</v>
       </c>
       <c r="B47" s="3">
         <v>641594185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1971,19 +2026,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>560571912</v>
+        <v>-860996724</v>
       </c>
       <c r="B48" s="3">
         <v>641594185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1991,19 +2046,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-347768085</v>
+        <v>261384694</v>
       </c>
       <c r="B49" s="3">
         <v>641594185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2011,19 +2066,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>1804649977</v>
+        <v>560571912</v>
       </c>
       <c r="B50" s="3">
         <v>641594185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2031,19 +2086,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-312904799</v>
+        <v>-347768085</v>
       </c>
       <c r="B51" s="3">
         <v>641594185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2051,19 +2106,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>631566423</v>
+        <v>1804649977</v>
       </c>
       <c r="B52" s="3">
         <v>641594185</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2071,19 +2126,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-1901846952</v>
+        <v>-312904799</v>
       </c>
       <c r="B53" s="3">
         <v>641594185</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2091,19 +2146,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-2087322095</v>
+        <v>631566423</v>
       </c>
       <c r="B54" s="3">
         <v>641594185</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2111,19 +2166,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>1856203750</v>
+        <v>-1901846952</v>
       </c>
       <c r="B55" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2131,19 +2186,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>1459031768</v>
+        <v>-2087322095</v>
       </c>
       <c r="B56" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2151,19 +2206,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>234463939</v>
+        <v>1856203750</v>
       </c>
       <c r="B57" s="3">
         <v>1697493859</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2171,19 +2226,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1557924855</v>
+        <v>1459031768</v>
       </c>
       <c r="B58" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2191,19 +2246,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>1285436590</v>
+        <v>234463939</v>
       </c>
       <c r="B59" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2211,19 +2266,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>69845640</v>
+        <v>1557924855</v>
       </c>
       <c r="B60" s="3">
         <v>292703195</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2231,19 +2286,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>2010125228</v>
+        <v>1285436590</v>
       </c>
       <c r="B61" s="3">
         <v>292703195</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2251,19 +2306,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-1545033900</v>
+        <v>69845640</v>
       </c>
       <c r="B62" s="3">
         <v>292703195</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2271,19 +2326,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>691802370</v>
+        <v>2010125228</v>
       </c>
       <c r="B63" s="3">
         <v>292703195</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2291,19 +2346,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>1678420747</v>
+        <v>-1545033900</v>
       </c>
       <c r="B64" s="3">
         <v>292703195</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2311,19 +2366,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>810152220</v>
+        <v>691802370</v>
       </c>
       <c r="B65" s="3">
         <v>292703195</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2331,19 +2386,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>552983545</v>
+        <v>1678420747</v>
       </c>
       <c r="B66" s="3">
         <v>292703195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2351,19 +2406,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>187594737</v>
+        <v>810152220</v>
       </c>
       <c r="B67" s="3">
         <v>292703195</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1481531</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2371,19 +2426,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>1133922542</v>
+        <v>552983545</v>
       </c>
       <c r="B68" s="3">
         <v>292703195</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2391,19 +2446,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-502207480</v>
+        <v>187594737</v>
       </c>
       <c r="B69" s="3">
         <v>292703195</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2411,19 +2466,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-277636975</v>
+        <v>1133922542</v>
       </c>
       <c r="B70" s="3">
         <v>292703195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2431,19 +2486,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>688464109</v>
+        <v>-502207480</v>
       </c>
       <c r="B71" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2451,19 +2506,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>355193205</v>
+        <v>-277636975</v>
       </c>
       <c r="B72" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2471,19 +2526,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1665898652</v>
+        <v>688464109</v>
       </c>
       <c r="B73" s="3">
         <v>-682406693</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2491,19 +2546,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>838127239</v>
+        <v>355193205</v>
       </c>
       <c r="B74" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2511,19 +2566,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>292098887</v>
+        <v>1665898652</v>
       </c>
       <c r="B75" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2531,19 +2586,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1436759370</v>
+        <v>838127239</v>
       </c>
       <c r="B76" s="3">
         <v>-65542374</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2551,19 +2606,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-883040665</v>
+        <v>292098887</v>
       </c>
       <c r="B77" s="3">
         <v>-65542374</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2571,19 +2626,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-759633700</v>
+        <v>-1436759370</v>
       </c>
       <c r="B78" s="3">
         <v>-65542374</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2591,19 +2646,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-2079671966</v>
+        <v>-883040665</v>
       </c>
       <c r="B79" s="3">
         <v>-65542374</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2611,19 +2666,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-898325376</v>
+        <v>-759633700</v>
       </c>
       <c r="B80" s="3">
         <v>-65542374</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2631,19 +2686,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>851481653</v>
+        <v>-2079671966</v>
       </c>
       <c r="B81" s="3">
         <v>-65542374</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2651,19 +2706,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>1001981197</v>
+        <v>-898325376</v>
       </c>
       <c r="B82" s="3">
         <v>-65542374</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2671,19 +2726,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>2100299150</v>
+        <v>851481653</v>
       </c>
       <c r="B83" s="3">
         <v>-65542374</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1481531</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2691,19 +2746,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>1470627725</v>
+        <v>1001981197</v>
       </c>
       <c r="B84" s="3">
         <v>-65542374</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2711,19 +2766,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>308453566</v>
+        <v>2100299150</v>
       </c>
       <c r="B85" s="3">
         <v>-65542374</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2731,19 +2786,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>946178124</v>
+        <v>1470627725</v>
       </c>
       <c r="B86" s="3">
         <v>-65542374</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2751,19 +2806,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-1745518492</v>
+        <v>308453566</v>
       </c>
       <c r="B87" s="3">
         <v>-65542374</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2771,19 +2826,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-1701391336</v>
+        <v>946178124</v>
       </c>
       <c r="B88" s="3">
         <v>-65542374</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2791,19 +2846,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>226630296</v>
+        <v>-1745518492</v>
       </c>
       <c r="B89" s="3">
         <v>-65542374</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2811,19 +2866,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1901987644</v>
+        <v>-1701391336</v>
       </c>
       <c r="B90" s="3">
         <v>-65542374</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2831,19 +2886,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>424393879</v>
+        <v>226630296</v>
       </c>
       <c r="B91" s="3">
         <v>-65542374</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2851,19 +2906,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>628209291</v>
+        <v>-1901987644</v>
       </c>
       <c r="B92" s="3">
         <v>-65542374</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -2871,19 +2926,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>1189302635</v>
+        <v>424393879</v>
       </c>
       <c r="B93" s="3">
         <v>-65542374</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -2891,19 +2946,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>1550502872</v>
+        <v>628209291</v>
       </c>
       <c r="B94" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2911,19 +2966,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>719119378</v>
+        <v>1189302635</v>
       </c>
       <c r="B95" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -2931,19 +2986,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-2074866392</v>
+        <v>1550502872</v>
       </c>
       <c r="B96" s="3">
         <v>482291274</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2951,19 +3006,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-264697624</v>
+        <v>719119378</v>
       </c>
       <c r="B97" s="3">
-        <v>1557471277</v>
+        <v>482291274</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -2971,19 +3026,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-603773592</v>
+        <v>-2074866392</v>
       </c>
       <c r="B98" s="3">
-        <v>1557471277</v>
+        <v>482291274</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -2991,19 +3046,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>878245409</v>
+        <v>-264697624</v>
       </c>
       <c r="B99" s="3">
         <v>1557471277</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3011,19 +3066,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-1507543996</v>
+        <v>-603773592</v>
       </c>
       <c r="B100" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3031,19 +3086,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1676088260</v>
+        <v>878245409</v>
       </c>
       <c r="B101" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3051,19 +3106,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1395112271</v>
+        <v>-1507543996</v>
       </c>
       <c r="B102" s="3">
         <v>502646517</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3071,19 +3126,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-410298387</v>
+        <v>-1676088260</v>
       </c>
       <c r="B103" s="3">
         <v>502646517</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3091,19 +3146,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-712152982</v>
+        <v>-1395112271</v>
       </c>
       <c r="B104" s="3">
         <v>502646517</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3111,19 +3166,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1461694536</v>
+        <v>-410298387</v>
       </c>
       <c r="B105" s="3">
         <v>502646517</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3131,19 +3186,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-975617421</v>
+        <v>-712152982</v>
       </c>
       <c r="B106" s="3">
         <v>502646517</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3151,19 +3206,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>253510137</v>
+        <v>1461694536</v>
       </c>
       <c r="B107" s="3">
         <v>502646517</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3171,19 +3226,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-1369527260</v>
+        <v>-975617421</v>
       </c>
       <c r="B108" s="3">
         <v>502646517</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3191,19 +3246,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>1403180067</v>
+        <v>253510137</v>
       </c>
       <c r="B109" s="3">
         <v>502646517</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="3">
-        <v>1481531</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3211,19 +3266,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>1819061676</v>
+        <v>-1369527260</v>
       </c>
       <c r="B110" s="3">
         <v>502646517</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3231,19 +3286,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>-1267122768</v>
+        <v>1403180067</v>
       </c>
       <c r="B111" s="3">
         <v>502646517</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3251,19 +3306,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>-1474500060</v>
+        <v>1819061676</v>
       </c>
       <c r="B112" s="3">
         <v>502646517</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3271,19 +3326,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>969611249</v>
+        <v>-1267122768</v>
       </c>
       <c r="B113" s="3">
         <v>502646517</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3291,19 +3346,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-689819389</v>
+        <v>-1474500060</v>
       </c>
       <c r="B114" s="3">
         <v>502646517</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3311,19 +3366,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>-172312966</v>
+        <v>969611249</v>
       </c>
       <c r="B115" s="3">
         <v>502646517</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3331,19 +3386,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1295053375</v>
+        <v>-689819389</v>
       </c>
       <c r="B116" s="3">
         <v>502646517</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3351,19 +3406,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>97134493</v>
+        <v>-172312966</v>
       </c>
       <c r="B117" s="3">
         <v>502646517</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3371,19 +3426,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>105762258</v>
+        <v>-1295053375</v>
       </c>
       <c r="B118" s="3">
         <v>502646517</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3391,19 +3446,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-1297123240</v>
+        <v>97134493</v>
       </c>
       <c r="B119" s="3">
         <v>502646517</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3411,19 +3466,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1882406477</v>
+        <v>105762258</v>
       </c>
       <c r="B120" s="3">
         <v>502646517</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3431,19 +3486,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-1195485210</v>
+        <v>-1297123240</v>
       </c>
       <c r="B121" s="3">
         <v>502646517</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3451,19 +3506,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1325064825</v>
+        <v>1882406477</v>
       </c>
       <c r="B122" s="3">
         <v>502646517</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E122" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3471,19 +3526,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>1585463536</v>
+        <v>-1195485210</v>
       </c>
       <c r="B123" s="3">
         <v>502646517</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3491,19 +3546,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-1899537868</v>
+        <v>-1325064825</v>
       </c>
       <c r="B124" s="3">
         <v>502646517</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3511,19 +3566,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>83290298</v>
+        <v>1585463536</v>
       </c>
       <c r="B125" s="3">
         <v>502646517</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3531,19 +3586,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-511011961</v>
+        <v>-1899537868</v>
       </c>
       <c r="B126" s="3">
         <v>502646517</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E126" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3551,19 +3606,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>-1025145887</v>
+        <v>83290298</v>
       </c>
       <c r="B127" s="3">
         <v>502646517</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E127" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3571,19 +3626,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>408284456</v>
+        <v>-511011961</v>
       </c>
       <c r="B128" s="3">
         <v>502646517</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3591,19 +3646,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>1299831025</v>
+        <v>-1025145887</v>
       </c>
       <c r="B129" s="3">
         <v>502646517</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E129" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3611,19 +3666,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-1976628278</v>
+        <v>408284456</v>
       </c>
       <c r="B130" s="3">
         <v>502646517</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E130" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3631,19 +3686,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1031925589</v>
+        <v>1299831025</v>
       </c>
       <c r="B131" s="3">
         <v>502646517</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E131" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3651,19 +3706,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>1894982809</v>
+        <v>-1976628278</v>
       </c>
       <c r="B132" s="3">
         <v>502646517</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3671,19 +3726,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-2121109836</v>
+        <v>-1031925589</v>
       </c>
       <c r="B133" s="3">
         <v>502646517</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E133" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3691,19 +3746,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-367590771</v>
+        <v>1894982809</v>
       </c>
       <c r="B134" s="3">
         <v>502646517</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3711,19 +3766,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-1604905084</v>
+        <v>-2121109836</v>
       </c>
       <c r="B135" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3731,19 +3786,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-1416131283</v>
+        <v>-367590771</v>
       </c>
       <c r="B136" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E136" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3751,19 +3806,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1280041401</v>
+        <v>-1604905084</v>
       </c>
       <c r="B137" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3771,19 +3826,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>1408622605</v>
+        <v>-1416131283</v>
       </c>
       <c r="B138" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3791,19 +3846,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-1184996614</v>
+        <v>-1280041401</v>
       </c>
       <c r="B139" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3811,19 +3866,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>-743273753</v>
+        <v>1408622605</v>
       </c>
       <c r="B140" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3831,19 +3886,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>738946719</v>
+        <v>-1184996614</v>
       </c>
       <c r="B141" s="3">
-        <v>1508121002</v>
+        <v>-1087550218</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3851,19 +3906,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>576545488</v>
+        <v>-743273753</v>
       </c>
       <c r="B142" s="3">
-        <v>1508121002</v>
+        <v>-1087550218</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -3871,19 +3926,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>1855907347</v>
+        <v>738946719</v>
       </c>
       <c r="B143" s="3">
         <v>1508121002</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -3891,19 +3946,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>-1145081060</v>
+        <v>576545488</v>
       </c>
       <c r="B144" s="3">
         <v>1508121002</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -3911,19 +3966,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-1488506594</v>
+        <v>1855907347</v>
       </c>
       <c r="B145" s="3">
         <v>1508121002</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -3931,19 +3986,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-745009968</v>
+        <v>-1145081060</v>
       </c>
       <c r="B146" s="3">
         <v>1508121002</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E146" s="3">
-        <v>1481531</v>
+        <v>44</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -3951,61 +4006,121 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1287614635</v>
+        <v>-1488506594</v>
       </c>
       <c r="B147" s="3">
-        <v>-2023891807</v>
+        <v>1508121002</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1190352690</v>
+        <v>44</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F147" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-1625153888</v>
+        <v>-745009968</v>
       </c>
       <c r="B148" s="3">
-        <v>-1392412074</v>
+        <v>1508121002</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E148" s="3">
-        <v>1190352690</v>
+        <v>44</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F148" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3">
+        <v>-181505390</v>
+      </c>
+      <c r="B149" s="3">
+        <v>498482096</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F149" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>-1287614635</v>
+      </c>
+      <c r="B150" s="3">
+        <v>-2023891807</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>-1625153888</v>
+      </c>
+      <c r="B151" s="3">
+        <v>-1392412074</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3">
         <v>1299702156</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B152" s="3">
         <v>-833208201</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E149" s="3">
-        <v>1190352690</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="C152" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" s="3">
         <v>15</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>fileId</t>
   </si>
@@ -155,15 +155,21 @@
     <t>ExampleTerrain</t>
   </si>
   <si>
+    <t>s_1730613532</t>
+  </si>
+  <si>
+    <t>ExampleXLS</t>
+  </si>
+  <si>
+    <t>s__870321060</t>
+  </si>
+  <si>
+    <t>ExampleXLua</t>
+  </si>
+  <si>
     <t>s__1141265897</t>
   </si>
   <si>
-    <t>ExampleXLS</t>
-  </si>
-  <si>
-    <t>ExampleXLua</t>
-  </si>
-  <si>
     <t>chgPowerCircle1</t>
   </si>
   <si>
@@ -620,7 +626,7 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t/>
+    <t>o_1511245233</t>
   </si>
   <si>
     <t>GuideWindow</t>
@@ -1378,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>23</v>
@@ -1392,13 +1398,13 @@
         <v>-1643264599</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
         <v>23</v>
@@ -1412,13 +1418,13 @@
         <v>30704076</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1432,13 +1438,13 @@
         <v>30704076</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1452,13 +1458,13 @@
         <v>30704076</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1472,13 +1478,13 @@
         <v>30704076</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1492,13 +1498,13 @@
         <v>-1787621370</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1512,13 +1518,13 @@
         <v>1634278514</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1532,13 +1538,13 @@
         <v>1874317673</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1552,13 +1558,13 @@
         <v>641594185</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1572,13 +1578,13 @@
         <v>641594185</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1592,13 +1598,13 @@
         <v>641594185</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1612,13 +1618,13 @@
         <v>641594185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1632,13 +1638,13 @@
         <v>641594185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -1652,13 +1658,13 @@
         <v>641594185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1672,13 +1678,13 @@
         <v>641594185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1692,13 +1698,13 @@
         <v>641594185</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1712,13 +1718,13 @@
         <v>641594185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1732,13 +1738,13 @@
         <v>641594185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1752,13 +1758,13 @@
         <v>641594185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1772,13 +1778,13 @@
         <v>641594185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1792,13 +1798,13 @@
         <v>641594185</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1812,13 +1818,13 @@
         <v>641594185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1832,13 +1838,13 @@
         <v>641594185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1852,13 +1858,13 @@
         <v>641594185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1872,13 +1878,13 @@
         <v>641594185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1892,13 +1898,13 @@
         <v>641594185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1912,13 +1918,13 @@
         <v>641594185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1932,13 +1938,13 @@
         <v>641594185</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1952,13 +1958,13 @@
         <v>641594185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1972,13 +1978,13 @@
         <v>641594185</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1992,13 +1998,13 @@
         <v>641594185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2012,13 +2018,13 @@
         <v>641594185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2032,13 +2038,13 @@
         <v>641594185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2052,13 +2058,13 @@
         <v>641594185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2072,13 +2078,13 @@
         <v>641594185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2092,13 +2098,13 @@
         <v>641594185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2112,13 +2118,13 @@
         <v>641594185</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2132,13 +2138,13 @@
         <v>641594185</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2152,13 +2158,13 @@
         <v>641594185</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2172,13 +2178,13 @@
         <v>641594185</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2192,13 +2198,13 @@
         <v>641594185</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2212,13 +2218,13 @@
         <v>1697493859</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2232,13 +2238,13 @@
         <v>1697493859</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2252,13 +2258,13 @@
         <v>1697493859</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2272,13 +2278,13 @@
         <v>292703195</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2292,13 +2298,13 @@
         <v>292703195</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2312,13 +2318,13 @@
         <v>292703195</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2332,13 +2338,13 @@
         <v>292703195</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2352,13 +2358,13 @@
         <v>292703195</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2372,13 +2378,13 @@
         <v>292703195</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2392,13 +2398,13 @@
         <v>292703195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2412,13 +2418,13 @@
         <v>292703195</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2432,13 +2438,13 @@
         <v>292703195</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2452,13 +2458,13 @@
         <v>292703195</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2472,13 +2478,13 @@
         <v>292703195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2492,13 +2498,13 @@
         <v>292703195</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2512,13 +2518,13 @@
         <v>292703195</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2532,13 +2538,13 @@
         <v>-682406693</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2552,13 +2558,13 @@
         <v>-682406693</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2572,13 +2578,13 @@
         <v>-682406693</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2592,13 +2598,13 @@
         <v>-65542374</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2612,13 +2618,13 @@
         <v>-65542374</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2632,13 +2638,13 @@
         <v>-65542374</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2652,13 +2658,13 @@
         <v>-65542374</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2672,13 +2678,13 @@
         <v>-65542374</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2692,13 +2698,13 @@
         <v>-65542374</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2712,13 +2718,13 @@
         <v>-65542374</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2732,13 +2738,13 @@
         <v>-65542374</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2752,13 +2758,13 @@
         <v>-65542374</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2772,13 +2778,13 @@
         <v>-65542374</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2792,13 +2798,13 @@
         <v>-65542374</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2812,13 +2818,13 @@
         <v>-65542374</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2832,13 +2838,13 @@
         <v>-65542374</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2852,13 +2858,13 @@
         <v>-65542374</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2872,13 +2878,13 @@
         <v>-65542374</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2892,13 +2898,13 @@
         <v>-65542374</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2912,13 +2918,13 @@
         <v>-65542374</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -2932,13 +2938,13 @@
         <v>-65542374</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -2952,13 +2958,13 @@
         <v>-65542374</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2972,13 +2978,13 @@
         <v>-65542374</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -2992,13 +2998,13 @@
         <v>482291274</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3012,13 +3018,13 @@
         <v>482291274</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3032,13 +3038,13 @@
         <v>482291274</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3052,13 +3058,13 @@
         <v>1557471277</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3072,13 +3078,13 @@
         <v>1557471277</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3092,13 +3098,13 @@
         <v>1557471277</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3112,13 +3118,13 @@
         <v>502646517</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3132,13 +3138,13 @@
         <v>502646517</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3152,13 +3158,13 @@
         <v>502646517</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3172,13 +3178,13 @@
         <v>502646517</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3192,13 +3198,13 @@
         <v>502646517</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3212,13 +3218,13 @@
         <v>502646517</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3232,13 +3238,13 @@
         <v>502646517</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3252,13 +3258,13 @@
         <v>502646517</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3272,13 +3278,13 @@
         <v>502646517</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3292,13 +3298,13 @@
         <v>502646517</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3312,13 +3318,13 @@
         <v>502646517</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3332,13 +3338,13 @@
         <v>502646517</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3352,13 +3358,13 @@
         <v>502646517</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3372,13 +3378,13 @@
         <v>502646517</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3392,13 +3398,13 @@
         <v>502646517</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3412,13 +3418,13 @@
         <v>502646517</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3432,13 +3438,13 @@
         <v>502646517</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3452,13 +3458,13 @@
         <v>502646517</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3472,13 +3478,13 @@
         <v>502646517</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3492,13 +3498,13 @@
         <v>502646517</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3512,13 +3518,13 @@
         <v>502646517</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3532,13 +3538,13 @@
         <v>502646517</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3552,13 +3558,13 @@
         <v>502646517</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3572,13 +3578,13 @@
         <v>502646517</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3592,13 +3598,13 @@
         <v>502646517</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3612,13 +3618,13 @@
         <v>502646517</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3632,13 +3638,13 @@
         <v>502646517</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3652,13 +3658,13 @@
         <v>502646517</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3672,13 +3678,13 @@
         <v>502646517</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3692,13 +3698,13 @@
         <v>502646517</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3712,13 +3718,13 @@
         <v>502646517</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3732,13 +3738,13 @@
         <v>502646517</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3752,13 +3758,13 @@
         <v>502646517</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3772,13 +3778,13 @@
         <v>502646517</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3792,13 +3798,13 @@
         <v>502646517</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3812,13 +3818,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3832,13 +3838,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3852,13 +3858,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3872,13 +3878,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3892,13 +3898,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3912,13 +3918,13 @@
         <v>-1087550218</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -3932,13 +3938,13 @@
         <v>1508121002</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -3952,13 +3958,13 @@
         <v>1508121002</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -3972,13 +3978,13 @@
         <v>1508121002</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -3992,13 +3998,13 @@
         <v>1508121002</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4012,13 +4018,13 @@
         <v>1508121002</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4032,13 +4038,13 @@
         <v>1508121002</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4052,13 +4058,13 @@
         <v>498482096</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F149" s="3">
         <v>15</v>
@@ -4072,13 +4078,13 @@
         <v>-2023891807</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F150" s="3">
         <v>15</v>
@@ -4092,13 +4098,13 @@
         <v>-1392412074</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F151" s="3">
         <v>15</v>
@@ -4112,13 +4118,13 @@
         <v>-833208201</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F152" s="3">
         <v>15</v>
